--- a/database description excel.xlsx
+++ b/database description excel.xlsx
@@ -7,25 +7,26 @@
   </bookViews>
   <sheets>
     <sheet name="User - User" sheetId="1" r:id="rId4"/>
-    <sheet name="Employment - Employment" sheetId="2" r:id="rId5"/>
-    <sheet name="Organisation - Organisation" sheetId="3" r:id="rId6"/>
-    <sheet name="Country - Country" sheetId="4" r:id="rId7"/>
-    <sheet name="City - City" sheetId="5" r:id="rId8"/>
-    <sheet name="Vacancy - Vacancy" sheetId="6" r:id="rId9"/>
-    <sheet name="Skill - Skill" sheetId="7" r:id="rId10"/>
-    <sheet name="Qualification" sheetId="8" r:id="rId11"/>
-    <sheet name="Message" sheetId="9" r:id="rId12"/>
-    <sheet name="Log" sheetId="10" r:id="rId13"/>
-    <sheet name="user_user" sheetId="11" r:id="rId14"/>
-    <sheet name="user_organization" sheetId="12" r:id="rId15"/>
-    <sheet name="user_skill" sheetId="13" r:id="rId16"/>
-    <sheet name="vacancy_skill" sheetId="14" r:id="rId17"/>
+    <sheet name="user_vacancy" sheetId="2" r:id="rId5"/>
+    <sheet name="Employment - Employment" sheetId="3" r:id="rId6"/>
+    <sheet name="Organisation - Organisation" sheetId="4" r:id="rId7"/>
+    <sheet name="Country - Country" sheetId="5" r:id="rId8"/>
+    <sheet name="City - City" sheetId="6" r:id="rId9"/>
+    <sheet name="Vacancy - Vacancy" sheetId="7" r:id="rId10"/>
+    <sheet name="Skill - Skill" sheetId="8" r:id="rId11"/>
+    <sheet name="Qualification" sheetId="9" r:id="rId12"/>
+    <sheet name="Message" sheetId="10" r:id="rId13"/>
+    <sheet name="Log" sheetId="11" r:id="rId14"/>
+    <sheet name="user_user" sheetId="12" r:id="rId15"/>
+    <sheet name="user_organization" sheetId="13" r:id="rId16"/>
+    <sheet name="user_skill" sheetId="14" r:id="rId17"/>
+    <sheet name="vacancy_skill" sheetId="15" r:id="rId18"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>User</t>
   </si>
@@ -102,12 +103,27 @@
     <t>bool</t>
   </si>
   <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>vacancy_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
     <t>Employment</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>date_start</t>
   </si>
   <si>
@@ -129,9 +145,6 @@
     <t>vacancy_name</t>
   </si>
   <si>
-    <t>vacancy_id</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -168,9 +181,6 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>Table 1</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -183,15 +193,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
@@ -208,6 +209,9 @@
   </si>
   <si>
     <t>skill_id</t>
+  </si>
+  <si>
+    <t>Important</t>
   </si>
 </sst>
 </file>
@@ -217,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -229,13 +233,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +257,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -261,6 +276,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -274,8 +311,210 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -291,12 +530,84 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -308,43 +619,124 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -373,6 +765,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -392,9 +796,12 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -411,10 +818,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -591,11 +998,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -604,7 +1014,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -619,12 +1029,12 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -881,10 +1291,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1175,7 +1585,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1456,11 +1866,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1470,7 +1878,7 @@
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.3047" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1478,212 +1886,212 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>50</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>50</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>50</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>50</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="A13" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1702,139 +2110,175 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="17" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="17" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="44" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="44" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="44" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="44" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="44" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="32.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="B3" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="B5" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1853,99 +2297,173 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="18" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="18" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="18" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="45" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="45" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="45" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="45" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="45" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s" s="4">
+    <row r="3" ht="32.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s" s="6">
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="C6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1964,120 +2482,151 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="19" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="19" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="46" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="46" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="46" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="46" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="A3" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="6">
+      <c r="A4" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2096,99 +2645,163 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="20" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="20" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="47" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="47" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="47" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="47" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="6">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s" s="6">
+      <c r="A4" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2207,99 +2820,281 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="21" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="21" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="48" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="48" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="48" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="48" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="48" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="A3" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>60</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="49" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="49" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="49" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="49" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="49" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" t="s" s="50">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s" s="51">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="52">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="51">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="51">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="51">
+        <v>10</v>
+      </c>
+      <c r="G5" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2318,204 +3113,120 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="9" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="11" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14.6" customHeight="1">
+      <c r="A1" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="C3" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" t="s" s="18">
         <v>27</v>
       </c>
-      <c r="B4" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="B4" t="s" s="19">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" ht="26.7" customHeight="1">
+      <c r="A5" t="s" s="18">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="B5" t="s" s="23">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="C5" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="23">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G9" s="7"/>
+      <c r="E5" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="23">
+        <v>10</v>
+      </c>
+      <c r="G5" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2534,120 +3245,211 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="10" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="25" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="25" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
+      <c r="B7" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="E9" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="F9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2666,120 +3468,163 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="11" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="29" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="29" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="29" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>40</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
+      <c r="B3" t="s" s="6">
         <v>41</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="A5" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2798,120 +3643,163 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="12" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="39" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="39" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="39" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="A3" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="A4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s" s="6">
+      <c r="A5" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>50</v>
       </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2930,141 +3818,163 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="13" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="40" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="40" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="40" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="A3" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
         <v>45</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B5" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="10">
         <v>50</v>
       </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3083,99 +3993,175 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="14" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="41" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="41" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="41" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="41" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="41" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="41" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="41" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="A3" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3194,183 +4180,151 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="15" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="42" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="42" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="42" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="42" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="42" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="A3" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7"/>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3389,141 +4343,199 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="16" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="43" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="43" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="43" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="43" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="43" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s" s="4">
+      <c r="A3" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="B4" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="8">
         <v>51</v>
       </c>
-      <c r="B5" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8">
-        <v>5000</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="B8" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
